--- a/biology/Botanique/Saxifrage_à_trois_doigts/Saxifrage_à_trois_doigts.xlsx
+++ b/biology/Botanique/Saxifrage_à_trois_doigts/Saxifrage_à_trois_doigts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_trois_doigts</t>
+          <t>Saxifrage_à_trois_doigts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga tridactylites
 La Saxifrage à trois doigts ou Saxifrage tridactyle (Saxifraga tridactylites) est une espèce de plante herbacée de la famille des Saxifragacées, très répandue en Europe et en Afrique du Nord.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_trois_doigts</t>
+          <t>Saxifrage_à_trois_doigts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante (10 cm maximum) très discrète. Elle a des feuilles et des tiges rougeâtres, avec des poils glanduleux.
 			Détail du pied.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_trois_doigts</t>
+          <t>Saxifrage_à_trois_doigts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,48 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse dans les zones dénudées, les falaises rocheuses, les pelouses rases, mais aussi en ville sur les trottoirs et les vieux murs.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saxifrage_à_trois_doigts</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saxifrage_%C3%A0_trois_doigts</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : avril-juin
 Inflorescence : racème simple
